--- a/data/trans_camb/P2C_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R2-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-7.792543405602559</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-22.949202533921</v>
+        <v>-22.94920253392099</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>17.65970218556884</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.755008254499246</v>
+        <v>3.515168931820649</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.6380789711408</v>
+        <v>-14.17370314064607</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-28.02722738312605</v>
+        <v>-28.83988882966421</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9.44599999583882</v>
+        <v>8.955087621589653</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.352610297700502</v>
+        <v>-1.294046510777859</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-28.85806147272213</v>
+        <v>-29.36238177337053</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.991253525675658</v>
+        <v>7.824041035255608</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.104217245442067</v>
+        <v>-6.562210387808818</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-26.82283652375663</v>
+        <v>-27.02797763174278</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.26793968480385</v>
+        <v>16.70200766949179</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.528143741356793</v>
+        <v>-1.809087471973674</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-17.32656757277831</v>
+        <v>-18.20322214170992</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24.84511447413157</v>
+        <v>25.39263606856695</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>14.20089461575466</v>
+        <v>14.73401706235645</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-17.08346266716825</v>
+        <v>-16.76353151627133</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>18.53625644511409</v>
+        <v>18.58635563817859</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.970573508663038</v>
+        <v>3.432786510687451</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-18.81000488628743</v>
+        <v>-18.54152429418698</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.2293367846939044</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.6754016046461373</v>
+        <v>-0.6754016046461372</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.4821837216448719</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.08352758932727294</v>
+        <v>0.09187628370023695</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3890597689364842</v>
+        <v>-0.3786306167997587</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7554757177580592</v>
+        <v>-0.7566338082530739</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2283756912575767</v>
+        <v>0.2165204329967057</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03701914273709816</v>
+        <v>-0.0339397159686293</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7023896638536203</v>
+        <v>-0.7098035345147471</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2056001886505743</v>
+        <v>0.2144811195576076</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1634223460289213</v>
+        <v>-0.1745531975715146</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7136920469244846</v>
+        <v>-0.7111489634909193</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5199131681398956</v>
+        <v>0.5331019595077536</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.04610804713444369</v>
+        <v>-0.05691022854879988</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.5586142612275986</v>
+        <v>-0.5643090864286766</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7693777664787281</v>
+        <v>0.8001022875928088</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4338881708278319</v>
+        <v>0.4604942740542468</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.5177556478729627</v>
+        <v>-0.5113009596459803</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5690687155126745</v>
+        <v>0.5880572390759189</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1223454836757743</v>
+        <v>0.102264318866698</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.5760712570964996</v>
+        <v>-0.5643376406514203</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>9.217472880111339</v>
+        <v>8.847391818838132</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.150299371066953</v>
+        <v>1.781388138426486</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-25.26995257596909</v>
+        <v>-24.60110760485064</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13.95151577983095</v>
+        <v>13.9371664775781</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.751357856117984</v>
+        <v>0.6351915096390628</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-30.81091666092859</v>
+        <v>-31.12093703419715</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>12.96636504561268</v>
+        <v>13.23614703645672</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.750542638701621</v>
+        <v>3.352913163182146</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-26.80878963968249</v>
+        <v>-26.84515757421018</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.98833861974883</v>
+        <v>22.45539870612879</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.72441218611743</v>
+        <v>15.85900562162637</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-13.94296719276586</v>
+        <v>-13.38666836930115</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29.12976332071937</v>
+        <v>29.44238326710531</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>16.22960144936089</v>
+        <v>15.48883634040171</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-19.27807589827345</v>
+        <v>-19.62361492833014</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>24.09148627734791</v>
+        <v>23.38762490554801</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>13.31927096123184</v>
+        <v>13.50481013861699</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-18.34223305116389</v>
+        <v>-18.33053236499678</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2896530670190652</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.6571808823999898</v>
+        <v>-0.6571808823999901</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.5409437997851044</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2791623902785609</v>
+        <v>0.2684960701638777</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.06517899242537857</v>
+        <v>0.05272829624381949</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7552919663845648</v>
+        <v>-0.758455965971137</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3266049785816305</v>
+        <v>0.3180778761637567</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03993268866737399</v>
+        <v>0.01160481136451885</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7063689193584679</v>
+        <v>-0.7083952246507179</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3497443958431793</v>
+        <v>0.3463716454056345</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.07231537478414134</v>
+        <v>0.08717966030435007</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7055200392048635</v>
+        <v>-0.7067257234365683</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.891826443601954</v>
+        <v>0.8863979587541838</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.610014059247115</v>
+        <v>0.6255495098265572</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.5281629130193521</v>
+        <v>-0.515855842287712</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8270253020452033</v>
+        <v>0.8181116467366545</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4525920895716649</v>
+        <v>0.4183111634534121</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5242453073789992</v>
+        <v>-0.5274370961116444</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7496292657286469</v>
+        <v>0.7200993042932868</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4204521471498405</v>
+        <v>0.4117628997197441</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.5656837345365172</v>
+        <v>-0.5681888141115138</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.270425762676237</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-13.83593625494291</v>
+        <v>-13.8359362549429</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.98979199805457</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.816821468851094</v>
+        <v>7.947577011956524</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.063923165969711</v>
+        <v>-3.526661187996448</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-19.21679577738205</v>
+        <v>-18.65758602550719</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.827402660708251</v>
+        <v>-6.237658141011439</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-16.13080175705134</v>
+        <v>-16.44804365448261</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-41.04693404590178</v>
+        <v>-40.77069003196463</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6.512105907959474</v>
+        <v>7.167137056131147</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.585736074680733</v>
+        <v>-4.604236792549913</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-23.472343092843</v>
+        <v>-22.64298838848123</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>20.13268374208786</v>
+        <v>19.98340559886728</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.99556556828178</v>
+        <v>8.406845160776303</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-8.59671153830366</v>
+        <v>-7.796279735626157</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.39689790933306</v>
+        <v>13.10957990887605</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.822571379950199</v>
+        <v>5.619289122635354</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-23.3462488249772</v>
+        <v>-23.79221743823481</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>16.91430090596972</v>
+        <v>17.01151220577751</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.808113325657786</v>
+        <v>6.005627195060221</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-13.86259940678704</v>
+        <v>-13.96400142599376</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.07304760220023486</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.4451508541849647</v>
+        <v>-0.4451508541849645</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.08794083475916399</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2528358324687893</v>
+        <v>0.2298139544482364</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.09140448293421713</v>
+        <v>-0.1069835171720956</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5673988410525894</v>
+        <v>-0.5565150765320597</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.09806371696308953</v>
+        <v>-0.1181190271613291</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3187359161965008</v>
+        <v>-0.3265094895228264</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8031186671250405</v>
+        <v>-0.7999875851716474</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1775021075234313</v>
+        <v>0.1919020945300239</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1213710599133977</v>
+        <v>-0.1256792478142598</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6280633782678069</v>
+        <v>-0.6200401694965403</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7124633367594538</v>
+        <v>0.7123425855333421</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2938139663639089</v>
+        <v>0.2898823722630414</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2930914541553231</v>
+        <v>-0.2797670409950488</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.386106594493251</v>
+        <v>0.3312828581904447</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1472707832947895</v>
+        <v>0.1400236024972271</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.5951271701169495</v>
+        <v>-0.6031421649258402</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5448350003597805</v>
+        <v>0.5306068340738078</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1846845705616437</v>
+        <v>0.192230557471089</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.432803706191992</v>
+        <v>-0.4318627336220401</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>2.409134505279837</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-13.2432478048549</v>
+        <v>-13.24324780485491</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>18.47723615837145</v>
@@ -1306,7 +1306,7 @@
         <v>4.005596180813992</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-16.74461653568213</v>
+        <v>-16.74461653568212</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>14.96949302740666</v>
+        <v>14.82073647630054</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.549629956207404</v>
+        <v>-1.395173288949084</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-16.69809940556063</v>
+        <v>-16.50727242384686</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13.78553940271624</v>
+        <v>13.42980756970778</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3625084959883331</v>
+        <v>0.08778809848495776</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-26.81056937099605</v>
+        <v>-27.32098444098676</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>15.446797497677</v>
+        <v>15.63911734558635</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.079043980301673</v>
+        <v>1.116845413171681</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-19.36803280008618</v>
+        <v>-19.27601770515436</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.89242354188661</v>
+        <v>22.56386173376836</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.166033802923099</v>
+        <v>6.041220675380102</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-9.908304986403268</v>
+        <v>-9.822863596516319</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23.99967163362117</v>
+        <v>23.62696557796635</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.32356678771725</v>
+        <v>10.46411419677065</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-18.31925880862958</v>
+        <v>-18.86932651162681</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>22.02361275135402</v>
+        <v>22.390236714582</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.324275677073319</v>
+        <v>7.109257428606336</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-14.07882853079475</v>
+        <v>-13.95827897077711</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.08231932024162469</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.4525173479097272</v>
+        <v>-0.4525173479097273</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.4807822574106083</v>
@@ -1411,7 +1411,7 @@
         <v>0.1228006640989957</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.5133443157634856</v>
+        <v>-0.5133443157634855</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.4640388612468836</v>
+        <v>0.479008956193717</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.0495314483796181</v>
+        <v>-0.04551171322248474</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5391118119331284</v>
+        <v>-0.5384500107912145</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3335753836374819</v>
+        <v>0.3253471329077076</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.008124391927423386</v>
+        <v>-0.001450024865434496</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6527041001444217</v>
+        <v>-0.658816165330609</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4571520816203907</v>
+        <v>0.4549521105055545</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.03096271724314556</v>
+        <v>0.03266584120274699</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5671150811214641</v>
+        <v>-0.5634808907208129</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8304390224923265</v>
+        <v>0.8240797636777615</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2237391699806622</v>
+        <v>0.2212437941810232</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.3613455577801808</v>
+        <v>-0.3575801291885293</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6728249031367053</v>
+        <v>0.6644810806427518</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2907797880311428</v>
+        <v>0.2965367878148725</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.5133608075554861</v>
+        <v>-0.5230546846110962</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7148573052559873</v>
+        <v>0.721049771137952</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2351100412457131</v>
+        <v>0.230093563862186</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.4506527871234805</v>
+        <v>-0.4481615491523266</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>7.223552363087577</v>
+        <v>6.834991392123579</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.402813074195103</v>
+        <v>-1.899898219211156</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-23.36274802057465</v>
+        <v>-23.41143650722438</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12.57782041669632</v>
+        <v>11.90998299495793</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.499678884764209</v>
+        <v>-2.817588019916458</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-21.79862176063324</v>
+        <v>-20.93936936395238</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>12.24171401393786</v>
+        <v>11.75585310452212</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.710023606020393</v>
+        <v>-1.959026560850345</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-20.70338214209297</v>
+        <v>-20.90753415615928</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>20.56225354905941</v>
+        <v>20.58554301448087</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.852423408271941</v>
+        <v>10.46984103718545</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-12.04859781215206</v>
+        <v>-12.20364354325888</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>23.06849755945194</v>
+        <v>23.25415521046077</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.240218223752844</v>
+        <v>7.760847884682111</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-11.90624922427407</v>
+        <v>-11.75622150797528</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>20.69707587887193</v>
+        <v>20.67965342994394</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.729741225738735</v>
+        <v>6.598361630077103</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-13.3548359087668</v>
+        <v>-13.38569914435317</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1260324685967496</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.589456335480077</v>
+        <v>-0.5894563354800773</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4766506541269437</v>
@@ -1616,7 +1616,7 @@
         <v>0.07102116764496358</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.4343017900545267</v>
+        <v>-0.4343017900545268</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.4726521800797156</v>
@@ -1625,7 +1625,7 @@
         <v>0.07235231839082372</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.4911244613503518</v>
+        <v>-0.4911244613503519</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2188090664020629</v>
+        <v>0.2117222121781694</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.07596938441185597</v>
+        <v>-0.05695888604718015</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.694510309061337</v>
+        <v>-0.6975994706975455</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3066383654090826</v>
+        <v>0.2867467433122158</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.06078130518506392</v>
+        <v>-0.06773876684639042</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.520276213636706</v>
+        <v>-0.5101831217285907</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3258581695253459</v>
+        <v>0.3144952192491203</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.04689189730562824</v>
+        <v>-0.05082434795188377</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5582508117042099</v>
+        <v>-0.5573842543219778</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7950258948260771</v>
+        <v>0.7974717500649663</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3864930240988796</v>
+        <v>0.4240101665714209</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.4610236754860401</v>
+        <v>-0.4687046841469144</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6636450561007498</v>
+        <v>0.6654897863303391</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2444366104736953</v>
+        <v>0.2239460892874108</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3443569698458197</v>
+        <v>-0.3378731774246828</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6405652070846856</v>
+        <v>0.6516469335721902</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2057536124416275</v>
+        <v>0.2047248801852742</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.4183776382976039</v>
+        <v>-0.4140458591894133</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>1.679652561167372</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-4.329561942576049</v>
+        <v>-4.329561942576047</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>14.32855046990641</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>6.023530953194341</v>
+        <v>6.817202937779183</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.034150756035762</v>
+        <v>-2.673361821733997</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-13.96996221155641</v>
+        <v>-14.57575574840637</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>10.76413683841075</v>
+        <v>10.24720413806151</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.089987587424527</v>
+        <v>-2.266880550255232</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-7.991267532288266</v>
+        <v>-8.157474593882425</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>10.90448551308101</v>
+        <v>10.8217782568631</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.308452347896269</v>
+        <v>-1.170011428960381</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-8.38774521268107</v>
+        <v>-8.559200861420663</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>20.83949164716855</v>
+        <v>21.18173496855889</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>10.97417461588591</v>
+        <v>10.88467143315448</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.2662089131820364</v>
+        <v>0.1244744679658901</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18.12421083544984</v>
+        <v>18.4954964612334</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.520693908974507</v>
+        <v>5.439661368223072</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-0.485503273397603</v>
+        <v>-0.7926226915618666</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>17.55908908317729</v>
+        <v>17.80564355531654</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.266117751565645</v>
+        <v>5.336981807525263</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-2.21811324805448</v>
+        <v>-2.193811571490482</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.06212618274323953</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.1601397590557134</v>
+        <v>-0.1601397590557133</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.5680964188061113</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.2843351150154261</v>
+        <v>0.3392040458423803</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1229146029052393</v>
+        <v>-0.1297146530395167</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7232659836842107</v>
+        <v>-0.7322803739264112</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.3675151332789146</v>
+        <v>0.3535434706531803</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.07352082465870155</v>
+        <v>-0.07971212648743126</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2764845749368873</v>
+        <v>-0.2815244090095346</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4067535570830077</v>
+        <v>0.4078614407047215</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.04855508569249343</v>
+        <v>-0.045128292484905</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3166366094396189</v>
+        <v>-0.3248652734946876</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.384129529736</v>
+        <v>1.476939932793438</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.7343567150005885</v>
+        <v>0.7843808612448405</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.00719384442150903</v>
+        <v>0.03227748642915339</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.7187253786692741</v>
+        <v>0.7295786415973036</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2117755298333104</v>
+        <v>0.2157648749104035</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.01629587816359238</v>
+        <v>-0.03279218292080141</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7359601587057627</v>
+        <v>0.7578539316935197</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2227462800933039</v>
+        <v>0.2219206091180129</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.08982950888138652</v>
+        <v>-0.0926982724815124</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>13.28512546157226</v>
+        <v>13.15627430319965</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.1111950954800478</v>
+        <v>-0.2648740961988534</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-17.77692835743911</v>
+        <v>-17.85554887722515</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>14.45480342775944</v>
+        <v>14.62308982105077</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.759943955401787</v>
+        <v>2.065039583808634</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-18.40411108708857</v>
+        <v>-18.25824570501976</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>14.65000384277412</v>
+        <v>14.81013483451835</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.611649415061554</v>
+        <v>1.506005111944998</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-17.43572019574058</v>
+        <v>-17.52679127843349</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>18.15301043395297</v>
+        <v>17.91233523446436</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.736918030936004</v>
+        <v>4.390665986400744</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-13.73333349681498</v>
+        <v>-13.78656965422006</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>19.35774223983204</v>
+        <v>19.55586386719782</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>6.401616478805471</v>
+        <v>6.719547746713184</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-14.363278353065</v>
+        <v>-14.4992258372349</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>18.08913512269256</v>
+        <v>18.2943726941833</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.031783183780299</v>
+        <v>4.843773864619673</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-14.63403218739731</v>
+        <v>-14.61570977741772</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.07316208779999694</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.5395074654638468</v>
+        <v>-0.5395074654638469</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.4950943739513236</v>
@@ -2044,7 +2044,7 @@
         <v>0.1216177627063808</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.4741901599747287</v>
+        <v>-0.4741901599747286</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.5132759209855637</v>
@@ -2053,7 +2053,7 @@
         <v>0.1003525569313385</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.5027987966796166</v>
+        <v>-0.5027987966796167</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.4376447410675544</v>
+        <v>0.4323720254364383</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.003784054665443487</v>
+        <v>-0.008247913672656612</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5847456562950937</v>
+        <v>-0.588683695364155</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.3994758308381388</v>
+        <v>0.4083062553229027</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.04930175379298882</v>
+        <v>0.05873535344414235</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.5128043428231039</v>
+        <v>-0.5126210420927018</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.445803237733131</v>
+        <v>0.4545972709223338</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.05002786648788781</v>
+        <v>0.04623188754726451</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.5335420714090979</v>
+        <v>-0.5367095103382193</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6494560049485925</v>
+        <v>0.6402756372541722</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1684192206321523</v>
+        <v>0.1578917776920603</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.4883376084641212</v>
+        <v>-0.4863211015428662</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5760864602251428</v>
+        <v>0.5855324567443564</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1920821720274952</v>
+        <v>0.2025863947964705</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.4314379300446514</v>
+        <v>-0.4312400616318726</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.584465395332106</v>
+        <v>0.5913053404889981</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.162530769582086</v>
+        <v>0.1561797794653917</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.4699853928651936</v>
+        <v>-0.4711198640462548</v>
       </c>
     </row>
     <row r="46">
